--- a/clonedprediction_marketscalculator.xlsx
+++ b/clonedprediction_marketscalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE94CEEB-B02C-43A0-8238-66ACF64F386A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EF2EDC-6599-4B2F-8D65-2AB0B467CB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{2C8C4621-048A-4FAC-9F1E-139B9B246DED}"/>
   </bookViews>
@@ -3374,7 +3374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3396,10 +3396,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3717,10 +3722,10 @@
   <dimension ref="A1:BL193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AC176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL2" sqref="BL2:BL193"/>
+      <selection pane="bottomRight" activeCell="AW161" sqref="AW161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,20 +3841,20 @@
         <v>22</v>
       </c>
       <c r="AD1"/>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="17"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AF1" s="18"/>
+      <c r="AH1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AL1" s="17" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AL1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
       <c r="AO1" s="14"/>
       <c r="AP1" s="14" t="s">
         <v>389</v>
@@ -3875,16 +3880,16 @@
       <c r="AW1" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AY1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BC1" s="17" t="s">
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BC1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
       <c r="BF1" s="6"/>
       <c r="BG1" s="6" t="s">
         <v>42</v>
@@ -4230,7 +4235,7 @@
         <v>1.1581008444444456</v>
       </c>
       <c r="AW3" s="4">
-        <f t="shared" ref="AW3:AW61" si="5">SUM(AU3:AV3)</f>
+        <f t="shared" ref="AW3" si="5">SUM(AU3:AV3)</f>
         <v>3.6158078444444506</v>
       </c>
       <c r="AY3">
@@ -35244,10 +35249,10 @@
         <f t="shared" si="29"/>
         <v>28.163325842696608</v>
       </c>
-      <c r="AS170" s="18">
+      <c r="AS170" s="17">
         <v>0.19</v>
       </c>
-      <c r="AT170" s="18">
+      <c r="AT170" s="17">
         <v>0.22</v>
       </c>
       <c r="AU170" s="15">
@@ -35429,10 +35434,10 @@
         <f t="shared" si="29"/>
         <v>30.083415168539297</v>
       </c>
-      <c r="AS171" s="18">
+      <c r="AS171" s="17">
         <v>0.21</v>
       </c>
-      <c r="AT171" s="18">
+      <c r="AT171" s="17">
         <v>0.24</v>
       </c>
       <c r="AU171" s="15">
@@ -35614,10 +35619,10 @@
         <f t="shared" si="29"/>
         <v>27.967476404494363</v>
       </c>
-      <c r="AS172" s="18">
+      <c r="AS172" s="17">
         <v>0.12</v>
       </c>
-      <c r="AT172" s="18">
+      <c r="AT172" s="17">
         <v>0.17</v>
       </c>
       <c r="AU172" s="15">
@@ -35799,10 +35804,10 @@
         <f t="shared" si="29"/>
         <v>26.417219230769202</v>
       </c>
-      <c r="AS173" s="18">
+      <c r="AS173" s="17">
         <v>0.13</v>
       </c>
-      <c r="AT173" s="18">
+      <c r="AT173" s="17">
         <v>0.18</v>
       </c>
       <c r="AU173" s="15">
@@ -35984,10 +35989,10 @@
         <f t="shared" si="29"/>
         <v>28.03899999999997</v>
       </c>
-      <c r="AS174" s="18">
+      <c r="AS174" s="17">
         <v>0.16</v>
       </c>
-      <c r="AT174" s="18">
+      <c r="AT174" s="17">
         <v>0.17</v>
       </c>
       <c r="AU174" s="15">
@@ -36169,10 +36174,10 @@
         <f t="shared" si="29"/>
         <v>22.590359615384592</v>
       </c>
-      <c r="AS175" s="18">
+      <c r="AS175" s="17">
         <v>0.23</v>
       </c>
-      <c r="AT175" s="18">
+      <c r="AT175" s="17">
         <v>0.18</v>
       </c>
       <c r="AU175" s="15">
@@ -36311,10 +36316,10 @@
       <c r="AA176" s="7">
         <v>-1</v>
       </c>
-      <c r="AB176" s="7">
+      <c r="AB176" s="8">
         <v>6.3684000000000003</v>
       </c>
-      <c r="AC176" s="7">
+      <c r="AC176" s="8">
         <v>4.8421000000000003</v>
       </c>
       <c r="AE176" s="9">
@@ -36495,10 +36500,10 @@
       <c r="AA177" s="7">
         <v>-1</v>
       </c>
-      <c r="AB177" s="7">
+      <c r="AB177" s="8">
         <v>5.56</v>
       </c>
-      <c r="AC177" s="7">
+      <c r="AC177" s="8">
         <v>5</v>
       </c>
       <c r="AE177" s="9">
@@ -36679,10 +36684,10 @@
       <c r="AA178" s="7">
         <v>-2</v>
       </c>
-      <c r="AB178" s="7">
+      <c r="AB178" s="8">
         <v>5.64</v>
       </c>
-      <c r="AC178" s="7">
+      <c r="AC178" s="8">
         <v>4.92</v>
       </c>
       <c r="AE178" s="9">
@@ -36863,10 +36868,10 @@
       <c r="AA179" s="7">
         <v>-1</v>
       </c>
-      <c r="AB179" s="7">
+      <c r="AB179" s="8">
         <v>5.32</v>
       </c>
-      <c r="AC179" s="7">
+      <c r="AC179" s="8">
         <v>4.4400000000000004</v>
       </c>
       <c r="AE179" s="9">
@@ -37047,10 +37052,10 @@
       <c r="AA180" s="7">
         <v>0</v>
       </c>
-      <c r="AB180" s="7">
+      <c r="AB180" s="8">
         <v>5.6</v>
       </c>
-      <c r="AC180" s="7">
+      <c r="AC180" s="8">
         <v>5.32</v>
       </c>
       <c r="AE180" s="9">
@@ -37231,10 +37236,10 @@
       <c r="AA181" s="7">
         <v>2</v>
       </c>
-      <c r="AB181" s="7">
+      <c r="AB181" s="8">
         <v>5.08</v>
       </c>
-      <c r="AC181" s="7">
+      <c r="AC181" s="8">
         <v>5.36</v>
       </c>
       <c r="AE181" s="9">
@@ -37415,10 +37420,10 @@
       <c r="AA182" s="7">
         <v>1</v>
       </c>
-      <c r="AB182" s="7">
+      <c r="AB182" s="8">
         <v>4.75</v>
       </c>
-      <c r="AC182" s="7">
+      <c r="AC182" s="8">
         <v>5.15</v>
       </c>
       <c r="AE182" s="9">
@@ -37599,10 +37604,10 @@
       <c r="AA183" s="7">
         <v>1</v>
       </c>
-      <c r="AB183" s="7">
+      <c r="AB183" s="8">
         <v>5.2104999999999997</v>
       </c>
-      <c r="AC183" s="7">
+      <c r="AC183" s="8">
         <v>5.0526</v>
       </c>
       <c r="AE183" s="9">
@@ -37701,187 +37706,187 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="184" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="10">
         <v>1.78</v>
       </c>
-      <c r="K184" t="s">
+      <c r="K184" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="L184">
+      <c r="L184" s="10">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="N184">
+      <c r="N184" s="10">
         <v>1.66</v>
       </c>
-      <c r="O184">
+      <c r="O184" s="10">
         <v>6.3689999999999998</v>
       </c>
-      <c r="P184">
+      <c r="P184" s="10">
         <v>17.422000000000001</v>
       </c>
-      <c r="Q184">
+      <c r="Q184" s="10">
         <v>9.8040000000000003</v>
       </c>
-      <c r="R184">
+      <c r="R184" s="10">
         <v>7.1680000000000001</v>
       </c>
-      <c r="S184">
+      <c r="S184" s="10">
         <v>53.762999999999998</v>
       </c>
-      <c r="T184">
+      <c r="T184" s="10">
         <v>11.038</v>
       </c>
-      <c r="U184">
+      <c r="U184" s="10">
         <v>30.210999999999999</v>
       </c>
-      <c r="V184" t="s">
+      <c r="V184" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W184" t="s">
+      <c r="W184" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="X184">
+      <c r="X184" s="10">
         <v>4</v>
       </c>
-      <c r="Y184">
+      <c r="Y184" s="10">
         <v>-4</v>
       </c>
-      <c r="Z184" s="7">
+      <c r="Z184" s="9">
         <v>0</v>
       </c>
-      <c r="AA184" s="7">
+      <c r="AA184" s="9">
         <v>0</v>
       </c>
-      <c r="AB184" s="7">
+      <c r="AB184" s="8">
         <v>4.2857000000000003</v>
       </c>
-      <c r="AC184" s="7">
+      <c r="AC184" s="8">
         <v>3.7143000000000002</v>
       </c>
       <c r="AE184" s="9">
         <v>10.321400000000001</v>
       </c>
-      <c r="AF184" s="7">
+      <c r="AF184" s="9">
         <v>10.071400000000001</v>
       </c>
-      <c r="AH184">
+      <c r="AH184" s="10">
         <v>1.79</v>
       </c>
-      <c r="AI184">
+      <c r="AI184" s="10">
         <v>0.72</v>
       </c>
-      <c r="AJ184" s="2">
+      <c r="AJ184" s="19">
         <f t="shared" si="27"/>
         <v>2.5099999999999998</v>
       </c>
-      <c r="AL184">
+      <c r="AL184" s="10">
         <v>7.628022099447521</v>
       </c>
-      <c r="AM184">
+      <c r="AM184" s="10">
         <v>1.8723124309392265</v>
       </c>
-      <c r="AN184" s="4">
+      <c r="AN184" s="20">
         <f t="shared" si="28"/>
         <v>9</v>
       </c>
-      <c r="AP184">
+      <c r="AP184" s="10">
         <v>6.0656287292817641</v>
       </c>
-      <c r="AQ184">
+      <c r="AQ184" s="10">
         <v>10.977182320441978</v>
       </c>
-      <c r="AR184" s="4">
+      <c r="AR184" s="20">
         <f t="shared" si="29"/>
         <v>17.042811049723742</v>
       </c>
-      <c r="AS184" s="7">
+      <c r="AS184" s="9">
         <v>0.2</v>
       </c>
-      <c r="AT184" s="7">
+      <c r="AT184" s="9">
         <v>0.22</v>
       </c>
-      <c r="AU184" s="15">
+      <c r="AU184" s="21">
         <f t="shared" si="32"/>
         <v>1.2131257458563529</v>
       </c>
-      <c r="AV184" s="15">
+      <c r="AV184" s="21">
         <f t="shared" si="33"/>
         <v>2.4149801104972353</v>
       </c>
-      <c r="AW184" s="4">
+      <c r="AW184" s="20">
         <f t="shared" si="34"/>
         <v>3.6281058563535882</v>
       </c>
-      <c r="AY184">
+      <c r="AY184" s="10">
         <v>1.6134364640883956</v>
       </c>
-      <c r="AZ184">
+      <c r="AZ184" s="10">
         <v>2.6867817679558041</v>
       </c>
-      <c r="BA184" s="3">
+      <c r="BA184" s="22">
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="BC184">
+      <c r="BC184" s="10">
         <v>7.6648397790055256</v>
       </c>
-      <c r="BD184">
+      <c r="BD184" s="10">
         <v>1.7890011049723744</v>
       </c>
-      <c r="BE184" s="3">
+      <c r="BE184" s="22">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="BG184" s="7">
+      <c r="BG184" s="9">
         <v>0.44</v>
       </c>
-      <c r="BH184" s="7">
+      <c r="BH184" s="9">
         <v>0.63</v>
       </c>
-      <c r="BI184" s="12">
+      <c r="BI184" s="23">
         <f t="shared" si="36"/>
         <v>3.3563297237569092</v>
       </c>
-      <c r="BJ184" s="12">
+      <c r="BJ184" s="23">
         <f t="shared" si="37"/>
         <v>1.1795568314917126</v>
       </c>
-      <c r="BK184" s="4">
+      <c r="BK184" s="20">
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="BL184" t="s">
+      <c r="BL184" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -37967,10 +37972,10 @@
       <c r="AA185" s="7">
         <v>3</v>
       </c>
-      <c r="AB185" s="7">
+      <c r="AB185" s="8">
         <v>3.75</v>
       </c>
-      <c r="AC185" s="7">
+      <c r="AC185" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="AE185" s="9">
@@ -38151,10 +38156,10 @@
       <c r="AA186" s="7">
         <v>0</v>
       </c>
-      <c r="AB186" s="7">
+      <c r="AB186" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AC186" s="7">
+      <c r="AC186" s="8">
         <v>5</v>
       </c>
       <c r="AE186" s="9">
@@ -38335,10 +38340,10 @@
       <c r="AA187" s="7">
         <v>-2</v>
       </c>
-      <c r="AB187" s="7">
+      <c r="AB187" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AC187" s="7">
+      <c r="AC187" s="8">
         <v>5.45</v>
       </c>
       <c r="AE187" s="9">
@@ -38437,187 +38442,187 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="188" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="10">
         <v>2.44</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="10">
         <v>1.7</v>
       </c>
-      <c r="K188" t="s">
+      <c r="K188" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="L188">
+      <c r="L188" s="10">
         <v>3.15</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="N188">
+      <c r="N188" s="10">
         <v>1.47</v>
       </c>
-      <c r="O188">
+      <c r="O188" s="10">
         <v>5.5430000000000001</v>
       </c>
-      <c r="P188">
+      <c r="P188" s="10">
         <v>21.786000000000001</v>
       </c>
-      <c r="Q188">
+      <c r="Q188" s="10">
         <v>11.71</v>
       </c>
-      <c r="R188">
+      <c r="R188" s="10">
         <v>5.9589999999999996</v>
       </c>
-      <c r="S188">
+      <c r="S188" s="10">
         <v>91.742999999999995</v>
       </c>
-      <c r="T188">
+      <c r="T188" s="10">
         <v>12.593999999999999</v>
       </c>
-      <c r="U188">
+      <c r="U188" s="10">
         <v>49.505000000000003</v>
       </c>
-      <c r="V188" t="s">
+      <c r="V188" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="W188" t="s">
+      <c r="W188" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="X188">
+      <c r="X188" s="10">
         <v>7</v>
       </c>
-      <c r="Y188">
+      <c r="Y188" s="10">
         <v>-8</v>
       </c>
-      <c r="Z188" s="7">
+      <c r="Z188" s="9">
         <v>1</v>
       </c>
-      <c r="AA188" s="7">
+      <c r="AA188" s="9">
         <v>-1</v>
       </c>
-      <c r="AB188" s="7">
+      <c r="AB188" s="8">
         <v>6.3529</v>
       </c>
-      <c r="AC188" s="7">
+      <c r="AC188" s="8">
         <v>6.7647000000000004</v>
       </c>
       <c r="AE188" s="9">
         <v>9.6471</v>
       </c>
-      <c r="AF188" s="7">
+      <c r="AF188" s="9">
         <v>10.9412</v>
       </c>
-      <c r="AH188">
+      <c r="AH188" s="10">
         <v>1.91</v>
       </c>
-      <c r="AI188">
+      <c r="AI188" s="10">
         <v>0.54</v>
       </c>
-      <c r="AJ188" s="2">
+      <c r="AJ188" s="19">
         <f t="shared" si="27"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="AL188">
+      <c r="AL188" s="10">
         <v>7.7391910112359499</v>
       </c>
-      <c r="AM188">
+      <c r="AM188" s="10">
         <v>2.4097415730337106</v>
       </c>
-      <c r="AN188" s="4">
+      <c r="AN188" s="20">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="AP188">
+      <c r="AP188" s="10">
         <v>15.573842696629224</v>
       </c>
-      <c r="AQ188">
+      <c r="AQ188" s="10">
         <v>11.829006741573007</v>
       </c>
-      <c r="AR188" s="4">
+      <c r="AR188" s="20">
         <f t="shared" si="29"/>
         <v>27.402849438202232</v>
       </c>
-      <c r="AS188" s="7">
+      <c r="AS188" s="9">
         <v>0.22</v>
       </c>
-      <c r="AT188" s="7">
+      <c r="AT188" s="9">
         <v>0.18</v>
       </c>
-      <c r="AU188" s="15">
+      <c r="AU188" s="21">
         <f t="shared" si="32"/>
         <v>3.4262453932584296</v>
       </c>
-      <c r="AV188" s="15">
+      <c r="AV188" s="21">
         <f t="shared" si="33"/>
         <v>2.1292212134831412</v>
       </c>
-      <c r="AW188" s="4">
+      <c r="AW188" s="20">
         <f t="shared" si="34"/>
         <v>5.5554666067415708</v>
       </c>
-      <c r="AY188">
+      <c r="AY188" s="10">
         <v>3.2297612359550523</v>
       </c>
-      <c r="AZ188">
+      <c r="AZ188" s="10">
         <v>2.6562404494382026</v>
       </c>
-      <c r="BA188" s="3">
+      <c r="BA188" s="22">
         <f t="shared" si="30"/>
         <v>5</v>
       </c>
-      <c r="BC188">
+      <c r="BC188" s="10">
         <v>9.0213067415730368</v>
       </c>
-      <c r="BD188">
+      <c r="BD188" s="10">
         <v>2.7333741573033694</v>
       </c>
-      <c r="BE188" s="3">
+      <c r="BE188" s="22">
         <f t="shared" si="35"/>
         <v>11</v>
       </c>
-      <c r="BG188" s="7">
+      <c r="BG188" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BH188" s="7">
+      <c r="BH188" s="9">
         <v>0.31</v>
       </c>
-      <c r="BI188" s="12">
+      <c r="BI188" s="23">
         <f t="shared" si="36"/>
         <v>4.411338876404491</v>
       </c>
-      <c r="BJ188" s="12">
+      <c r="BJ188" s="23">
         <f t="shared" si="37"/>
         <v>0.74701988764045024</v>
       </c>
-      <c r="BK188" s="4">
+      <c r="BK188" s="20">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="BL188" t="s">
+      <c r="BL188" s="10" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -38703,10 +38708,10 @@
       <c r="AA189" s="7">
         <v>1</v>
       </c>
-      <c r="AB189" s="7">
+      <c r="AB189" s="8">
         <v>7.7222</v>
       </c>
-      <c r="AC189" s="7">
+      <c r="AC189" s="8">
         <v>5.6471</v>
       </c>
       <c r="AE189" s="9">
@@ -38887,10 +38892,10 @@
       <c r="AA190" s="7">
         <v>-1</v>
       </c>
-      <c r="AB190" s="7">
+      <c r="AB190" s="8">
         <v>4.9474</v>
       </c>
-      <c r="AC190" s="7">
+      <c r="AC190" s="8">
         <v>5.7367999999999997</v>
       </c>
       <c r="AE190" s="9">
@@ -39071,10 +39076,10 @@
       <c r="AA191" s="7">
         <v>0</v>
       </c>
-      <c r="AB191" s="7">
+      <c r="AB191" s="8">
         <v>4.84</v>
       </c>
-      <c r="AC191" s="7">
+      <c r="AC191" s="8">
         <v>4.76</v>
       </c>
       <c r="AE191" s="9">
@@ -39255,10 +39260,10 @@
       <c r="AA192" s="7">
         <v>-1</v>
       </c>
-      <c r="AB192" s="7">
+      <c r="AB192" s="8">
         <v>4.1500000000000004</v>
       </c>
-      <c r="AC192" s="7">
+      <c r="AC192" s="8">
         <v>5.45</v>
       </c>
       <c r="AE192" s="9">
@@ -39439,10 +39444,10 @@
       <c r="AA193" s="7">
         <v>0</v>
       </c>
-      <c r="AB193" s="7">
+      <c r="AB193" s="8">
         <v>4</v>
       </c>
-      <c r="AC193" s="7">
+      <c r="AC193" s="8">
         <v>4.2</v>
       </c>
       <c r="AE193" s="9">
